--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deniz\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deniz\MEKAGEN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9A0AE5-1626-40B2-93F4-673B7D0D3892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A01E843-59FA-4634-AB65-2497829F1CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3765" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1605" yWindow="1395" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart" sheetId="1" r:id="rId1"/>
@@ -421,6 +421,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -441,27 +462,6 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -920,8 +920,8 @@
   </sheetPr>
   <dimension ref="A2:FL26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1027,131 +1027,131 @@
       <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="32">
         <v>45015</v>
       </c>
-      <c r="C6" s="26"/>
+      <c r="C6" s="33"/>
     </row>
     <row r="7" spans="1:168" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:168" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="30">
         <v>4</v>
       </c>
-      <c r="C8" s="24"/>
+      <c r="C8" s="31"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="20" t="str">
+      <c r="G8" s="27" t="str">
         <f>TEXT(G9,"dd.mm.yy")&amp;" - "&amp;TEXT(M9,"dd.mm.yy")</f>
         <v>27.03.23 - 02.04.23</v>
       </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="20" t="str">
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="27" t="str">
         <f>TEXT(N9,"dd.mm.yy")&amp;" - "&amp;TEXT(T9,"dd.mm.yy")</f>
         <v>03.04.23 - 09.04.23</v>
       </c>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="20" t="str">
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="27" t="str">
         <f t="shared" ref="U8" si="0">TEXT(U9,"dd.mm.yy")&amp;" - "&amp;TEXT(AA9,"dd.mm.yy")</f>
         <v>10.04.23 - 16.04.23</v>
       </c>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="20" t="str">
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="27" t="str">
         <f t="shared" ref="AB8" si="1">TEXT(AB9,"dd.mm.yy")&amp;" - "&amp;TEXT(AH9,"dd.mm.yy")</f>
         <v>17.04.23 - 23.04.23</v>
       </c>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="21"/>
-      <c r="AE8" s="21"/>
-      <c r="AF8" s="21"/>
-      <c r="AG8" s="21"/>
-      <c r="AH8" s="22"/>
-      <c r="AI8" s="20" t="str">
+      <c r="AC8" s="28"/>
+      <c r="AD8" s="28"/>
+      <c r="AE8" s="28"/>
+      <c r="AF8" s="28"/>
+      <c r="AG8" s="28"/>
+      <c r="AH8" s="29"/>
+      <c r="AI8" s="27" t="str">
         <f t="shared" ref="AI8" si="2">TEXT(AI9,"dd.mm.yy")&amp;" - "&amp;TEXT(AO9,"dd.mm.yy")</f>
         <v>24.04.23 - 30.04.23</v>
       </c>
-      <c r="AJ8" s="21"/>
-      <c r="AK8" s="21"/>
-      <c r="AL8" s="21"/>
-      <c r="AM8" s="21"/>
-      <c r="AN8" s="21"/>
-      <c r="AO8" s="22"/>
-      <c r="AP8" s="20" t="str">
+      <c r="AJ8" s="28"/>
+      <c r="AK8" s="28"/>
+      <c r="AL8" s="28"/>
+      <c r="AM8" s="28"/>
+      <c r="AN8" s="28"/>
+      <c r="AO8" s="29"/>
+      <c r="AP8" s="27" t="str">
         <f t="shared" ref="AP8" si="3">TEXT(AP9,"dd.mm.yy")&amp;" - "&amp;TEXT(AV9,"dd.mm.yy")</f>
         <v>01.05.23 - 07.05.23</v>
       </c>
-      <c r="AQ8" s="21"/>
-      <c r="AR8" s="21"/>
-      <c r="AS8" s="21"/>
-      <c r="AT8" s="21"/>
-      <c r="AU8" s="21"/>
-      <c r="AV8" s="22"/>
-      <c r="AW8" s="20" t="str">
+      <c r="AQ8" s="28"/>
+      <c r="AR8" s="28"/>
+      <c r="AS8" s="28"/>
+      <c r="AT8" s="28"/>
+      <c r="AU8" s="28"/>
+      <c r="AV8" s="29"/>
+      <c r="AW8" s="27" t="str">
         <f t="shared" ref="AW8" si="4">TEXT(AW9,"dd.mm.yy")&amp;" - "&amp;TEXT(BC9,"dd.mm.yy")</f>
         <v>08.05.23 - 14.05.23</v>
       </c>
-      <c r="AX8" s="21"/>
-      <c r="AY8" s="21"/>
-      <c r="AZ8" s="21"/>
-      <c r="BA8" s="21"/>
-      <c r="BB8" s="21"/>
-      <c r="BC8" s="22"/>
-      <c r="BD8" s="20" t="str">
+      <c r="AX8" s="28"/>
+      <c r="AY8" s="28"/>
+      <c r="AZ8" s="28"/>
+      <c r="BA8" s="28"/>
+      <c r="BB8" s="28"/>
+      <c r="BC8" s="29"/>
+      <c r="BD8" s="27" t="str">
         <f t="shared" ref="BD8" si="5">TEXT(BD9,"dd.mm.yy")&amp;" - "&amp;TEXT(BJ9,"dd.mm.yy")</f>
         <v>15.05.23 - 21.05.23</v>
       </c>
-      <c r="BE8" s="21"/>
-      <c r="BF8" s="21"/>
-      <c r="BG8" s="21"/>
-      <c r="BH8" s="21"/>
-      <c r="BI8" s="21"/>
-      <c r="BJ8" s="22"/>
-      <c r="BK8" s="20" t="str">
+      <c r="BE8" s="28"/>
+      <c r="BF8" s="28"/>
+      <c r="BG8" s="28"/>
+      <c r="BH8" s="28"/>
+      <c r="BI8" s="28"/>
+      <c r="BJ8" s="29"/>
+      <c r="BK8" s="27" t="str">
         <f t="shared" ref="BK8" si="6">TEXT(BK9,"dd.mm.yy")&amp;" - "&amp;TEXT(BQ9,"dd.mm.yy")</f>
         <v>22.05.23 - 28.05.23</v>
       </c>
-      <c r="BL8" s="21"/>
-      <c r="BM8" s="21"/>
-      <c r="BN8" s="21"/>
-      <c r="BO8" s="21"/>
-      <c r="BP8" s="21"/>
-      <c r="BQ8" s="22"/>
-      <c r="BR8" s="20" t="str">
+      <c r="BL8" s="28"/>
+      <c r="BM8" s="28"/>
+      <c r="BN8" s="28"/>
+      <c r="BO8" s="28"/>
+      <c r="BP8" s="28"/>
+      <c r="BQ8" s="29"/>
+      <c r="BR8" s="27" t="str">
         <f t="shared" ref="BR8" si="7">TEXT(BR9,"dd.mm.yy")&amp;" - "&amp;TEXT(BX9,"dd.mm.yy")</f>
         <v>29.05.23 - 04.06.23</v>
       </c>
-      <c r="BS8" s="21"/>
-      <c r="BT8" s="21"/>
-      <c r="BU8" s="21"/>
-      <c r="BV8" s="21"/>
-      <c r="BW8" s="21"/>
-      <c r="BX8" s="22"/>
-      <c r="BY8" s="20" t="str">
+      <c r="BS8" s="28"/>
+      <c r="BT8" s="28"/>
+      <c r="BU8" s="28"/>
+      <c r="BV8" s="28"/>
+      <c r="BW8" s="28"/>
+      <c r="BX8" s="29"/>
+      <c r="BY8" s="27" t="str">
         <f t="shared" ref="BY8" si="8">TEXT(BY9,"dd.mm.yy")&amp;" - "&amp;TEXT(CE9,"dd.mm.yy")</f>
         <v>05.06.23 - 11.06.23</v>
       </c>
-      <c r="BZ8" s="21"/>
-      <c r="CA8" s="21"/>
-      <c r="CB8" s="21"/>
-      <c r="CC8" s="21"/>
-      <c r="CD8" s="21"/>
-      <c r="CE8" s="22"/>
+      <c r="BZ8" s="28"/>
+      <c r="CA8" s="28"/>
+      <c r="CB8" s="28"/>
+      <c r="CC8" s="28"/>
+      <c r="CD8" s="28"/>
+      <c r="CE8" s="29"/>
     </row>
     <row r="9" spans="1:168" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G9" s="12">
@@ -1464,22 +1464,22 @@
       </c>
     </row>
     <row r="10" spans="1:168" s="5" customFormat="1" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="20" t="s">
         <v>2</v>
       </c>
       <c r="G10" s="15" t="str">
@@ -1877,20 +1877,20 @@
       <c r="FL10" s="16"/>
     </row>
     <row r="11" spans="1:168" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29">
+      <c r="B11" s="21"/>
+      <c r="C11" s="22">
         <v>1</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="21">
         <v>4</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="23">
         <v>45015</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="23">
         <v>45018</v>
       </c>
       <c r="H11" s="8"/>
@@ -1971,20 +1971,20 @@
       <c r="CE11" s="8"/>
     </row>
     <row r="12" spans="1:168" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29">
-        <v>0.2</v>
-      </c>
-      <c r="D12" s="28">
+      <c r="B12" s="21"/>
+      <c r="C12" s="22">
+        <v>1</v>
+      </c>
+      <c r="D12" s="21">
         <v>5</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="23">
         <v>45019</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="23">
         <v>45025</v>
       </c>
       <c r="G12" s="7"/>
@@ -2066,20 +2066,20 @@
       <c r="CE12" s="7"/>
     </row>
     <row r="13" spans="1:168" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29">
-        <v>0</v>
-      </c>
-      <c r="D13" s="28">
+      <c r="B13" s="21"/>
+      <c r="C13" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="D13" s="21">
         <v>5</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="23">
         <v>45019</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="23">
         <v>45025</v>
       </c>
       <c r="G13" s="7"/>
@@ -2161,20 +2161,20 @@
       <c r="CE13" s="7"/>
     </row>
     <row r="14" spans="1:168" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29">
+      <c r="B14" s="21"/>
+      <c r="C14" s="22">
         <v>0</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="21">
         <v>5</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="23">
         <v>45019</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="23">
         <v>45025</v>
       </c>
       <c r="G14" s="7"/>
@@ -2256,20 +2256,20 @@
       <c r="CE14" s="7"/>
     </row>
     <row r="15" spans="1:168" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29">
+      <c r="B15" s="21"/>
+      <c r="C15" s="22">
         <v>0</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="21">
         <v>6</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="23">
         <v>45026</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="23">
         <v>45032</v>
       </c>
       <c r="G15" s="7"/>
@@ -2351,20 +2351,20 @@
       <c r="CE15" s="7"/>
     </row>
     <row r="16" spans="1:168" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29">
+      <c r="B16" s="21"/>
+      <c r="C16" s="22">
         <v>0</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="21">
         <v>7</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="23">
         <v>45033</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="23">
         <v>45039</v>
       </c>
       <c r="G16" s="7"/>
@@ -2446,20 +2446,20 @@
       <c r="CE16" s="7"/>
     </row>
     <row r="17" spans="1:83" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29">
+      <c r="B17" s="21"/>
+      <c r="C17" s="22">
         <v>0</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="21">
         <v>7</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="23">
         <v>45033</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="23">
         <v>45039</v>
       </c>
       <c r="G17" s="7"/>
@@ -2540,20 +2540,20 @@
       <c r="CE17" s="7"/>
     </row>
     <row r="18" spans="1:83" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="29">
+      <c r="B18" s="24"/>
+      <c r="C18" s="22">
         <v>0</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="23">
         <v>45040</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="23">
         <v>45060</v>
       </c>
       <c r="G18" s="7"/>
@@ -2635,20 +2635,20 @@
       <c r="CE18" s="7"/>
     </row>
     <row r="19" spans="1:83" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="29">
+      <c r="B19" s="24"/>
+      <c r="C19" s="22">
         <v>0</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="23">
         <v>45054</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="23">
         <v>45088</v>
       </c>
       <c r="G19" s="7"/>
@@ -2730,20 +2730,20 @@
       <c r="CE19" s="7"/>
     </row>
     <row r="20" spans="1:83" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29">
+      <c r="B20" s="21"/>
+      <c r="C20" s="22">
         <v>0</v>
       </c>
-      <c r="D20" s="28">
+      <c r="D20" s="21">
         <v>14</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="23">
         <v>45082</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="23">
         <v>45088</v>
       </c>
       <c r="G20" s="7"/>
@@ -2830,11 +2830,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="G8:M8"/>
-    <mergeCell ref="N8:T8"/>
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B6:C6"/>
     <mergeCell ref="BR8:BX8"/>
     <mergeCell ref="BY8:CE8"/>
     <mergeCell ref="AB8:AH8"/>
@@ -2843,6 +2838,11 @@
     <mergeCell ref="AW8:BC8"/>
     <mergeCell ref="BD8:BJ8"/>
     <mergeCell ref="BK8:BQ8"/>
+    <mergeCell ref="G8:M8"/>
+    <mergeCell ref="N8:T8"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="G11:CE20">
